--- a/console/Networking/kubernetesExcel/components/detailTab.xlsx
+++ b/console/Networking/kubernetesExcel/components/detailTab.xlsx
@@ -1,34 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.15\Console_190116-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t xml:space="preserve">Enabled' </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name only supports Chinese, numbers, upper case and lower case letters, English underline "_" and line-through "-"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>detailTab_i18nKey_1</t>
   </si>
   <si>
@@ -347,9 +338,6 @@
     </r>
   </si>
   <si>
-    <t>Creation Time</t>
-  </si>
-  <si>
     <t>detailTab_i18nKey_23</t>
   </si>
   <si>
@@ -364,9 +352,6 @@
     </r>
   </si>
   <si>
-    <t>Update Time</t>
-  </si>
-  <si>
     <t>detailTab_i18nKey_24</t>
   </si>
   <si>
@@ -381,9 +366,6 @@
     </r>
   </si>
   <si>
-    <t>Status Change Reason</t>
-  </si>
-  <si>
     <t>detailTab_i18nKey_25</t>
   </si>
   <si>
@@ -404,9 +386,6 @@
     <t>detailTab_i18nKey_26</t>
   </si>
   <si>
-    <t>Management Node CIDR</t>
-  </si>
-  <si>
     <t>detailTab_i18nKey_27</t>
   </si>
   <si>
@@ -424,16 +403,10 @@
     <t>detailTab_i18nKey_28</t>
   </si>
   <si>
-    <t>The name length cannot exceed 32 characters</t>
-  </si>
-  <si>
     <t>detailTab_i18nKey_29</t>
   </si>
   <si>
     <t>detailTab_i18nKey_30</t>
-  </si>
-  <si>
-    <t>Description length cannot exceed 256 characters</t>
   </si>
   <si>
     <r>
@@ -588,7 +561,7 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>名称只支持中文、数字、大小写字母及英文下划线</t>
+      <t>描述长度不能超过</t>
     </r>
     <r>
       <rPr>
@@ -597,16 +570,83 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“_”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>及中划线</t>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+  </si>
+  <si>
+    <t>Modify description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Certificate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated At</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Node CIDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name is required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description may be at most 256 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称只支持中文、数字、大小写字母及英文下划线</t>
     </r>
     <r>
       <rPr>
@@ -615,18 +655,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“-”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述长度不能超过</t>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及中划线</t>
     </r>
     <r>
       <rPr>
@@ -635,28 +673,28 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>个字符</t>
-    </r>
-  </si>
-  <si>
-    <t>Must provide a name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify name</t>
+      <t>“-”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name may be at most 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created At</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name allows for chinese, numbers, uppercase and lowercase letters, underscores and hyphens only</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -691,6 +729,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -712,13 +774,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1058,354 +1125,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="44.5" customWidth="1"/>
-    <col min="3" max="3" width="63.25" customWidth="1"/>
+    <col min="3" max="3" width="36.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B16 A18:B30 A17" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B16 A18:B28 A17 A30:B30 A29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>